--- a/statistics/HistoricalDistanceData/historical_distance/Q303438-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q303438-en.xlsx
@@ -34,18 +34,18 @@
     <t>Mountain Meadows Massacre Monument</t>
   </si>
   <si>
+    <t>Consumer Price Index, 1800-</t>
+  </si>
+  <si>
+    <t>Mountain Meadows Association</t>
+  </si>
+  <si>
     <t>Deseret News | 1875-08-04 | Brigham Young</t>
   </si>
   <si>
     <t>Mountain Meadows Monument Foundation</t>
   </si>
   <si>
-    <t>Consumer Price Index, 1800-</t>
-  </si>
-  <si>
-    <t>Mountain Meadows Association</t>
-  </si>
-  <si>
     <t>2007-03-15T00:00:00UTC</t>
   </si>
   <si>
@@ -61,16 +61,16 @@
     <t>https://secure.flickr.com/photos/jstephenconn/2807773224/</t>
   </si>
   <si>
+    <t>https://www.minneapolisfed.org/about-us/monetary-policy/inflation-calculator/consumer-price-index-1800-</t>
+  </si>
+  <si>
+    <t>http://www.mtn-meadows-assoc.com/</t>
+  </si>
+  <si>
     <t>https://newspapers.lib.utah.edu/details?id=2641490</t>
   </si>
   <si>
     <t>http://www.mmmf.org/</t>
-  </si>
-  <si>
-    <t>https://www.minneapolisfed.org/about-us/monetary-policy/inflation-calculator/consumer-price-index-1800-</t>
-  </si>
-  <si>
-    <t>http://www.mtn-meadows-assoc.com/</t>
   </si>
 </sst>
 </file>
